--- a/Tugas 2/average.xlsx
+++ b/Tugas 2/average.xlsx
@@ -1459,7 +1459,7 @@
         <v>217</v>
       </c>
       <c r="FF2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="FG2">
         <v>219</v>
@@ -1501,7 +1501,7 @@
         <v>204</v>
       </c>
       <c r="FT2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="FU2">
         <v>206</v>
@@ -1543,13 +1543,13 @@
         <v>203</v>
       </c>
       <c r="GH2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="GI2">
         <v>202</v>
       </c>
       <c r="GJ2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="GK2">
         <v>203</v>
@@ -1561,19 +1561,19 @@
         <v>204</v>
       </c>
       <c r="GN2">
+        <v>205</v>
+      </c>
+      <c r="GO2">
+        <v>205</v>
+      </c>
+      <c r="GP2">
+        <v>205</v>
+      </c>
+      <c r="GQ2">
         <v>204</v>
       </c>
-      <c r="GO2">
-        <v>204</v>
-      </c>
-      <c r="GP2">
-        <v>204</v>
-      </c>
-      <c r="GQ2">
+      <c r="GR2">
         <v>203</v>
-      </c>
-      <c r="GR2">
-        <v>202</v>
       </c>
       <c r="GS2">
         <v>202</v>
@@ -1977,7 +1977,7 @@
         <v>254</v>
       </c>
       <c r="EC3">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="ED3">
         <v>250</v>
@@ -1986,7 +1986,7 @@
         <v>240</v>
       </c>
       <c r="EF3">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="EG3">
         <v>82</v>
@@ -2067,10 +2067,10 @@
         <v>218</v>
       </c>
       <c r="FG3">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="FH3">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="FI3">
         <v>215</v>
@@ -2112,7 +2112,7 @@
         <v>206</v>
       </c>
       <c r="FV3">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="FW3">
         <v>206</v>
@@ -2136,7 +2136,7 @@
         <v>204</v>
       </c>
       <c r="GD3">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="GE3">
         <v>203</v>
@@ -2145,7 +2145,7 @@
         <v>203</v>
       </c>
       <c r="GG3">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="GH3">
         <v>203</v>
@@ -2181,7 +2181,7 @@
         <v>202</v>
       </c>
       <c r="GS3">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:201">
@@ -2672,7 +2672,7 @@
         <v>217</v>
       </c>
       <c r="FG4">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="FH4">
         <v>219</v>
@@ -2714,10 +2714,10 @@
         <v>204</v>
       </c>
       <c r="FU4">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="FV4">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="FW4">
         <v>205</v>
@@ -2729,7 +2729,7 @@
         <v>205</v>
       </c>
       <c r="FZ4">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="GA4">
         <v>205</v>
@@ -2756,7 +2756,7 @@
         <v>204</v>
       </c>
       <c r="GI4">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="GJ4">
         <v>203</v>
@@ -2771,7 +2771,7 @@
         <v>204</v>
       </c>
       <c r="GN4">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="GO4">
         <v>204</v>
@@ -2780,13 +2780,13 @@
         <v>204</v>
       </c>
       <c r="GQ4">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="GR4">
         <v>202</v>
       </c>
       <c r="GS4">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:201">
@@ -3118,7 +3118,7 @@
         <v>252</v>
       </c>
       <c r="DF5">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="DG5">
         <v>250</v>
@@ -3130,7 +3130,7 @@
         <v>251</v>
       </c>
       <c r="DJ5">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="DK5">
         <v>251</v>
@@ -3280,7 +3280,7 @@
         <v>219</v>
       </c>
       <c r="FH5">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="FI5">
         <v>214</v>
@@ -3373,7 +3373,7 @@
         <v>204</v>
       </c>
       <c r="GM5">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="GN5">
         <v>203</v>
@@ -3723,7 +3723,7 @@
         <v>251</v>
       </c>
       <c r="DF6">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="DG6">
         <v>246</v>
@@ -3993,7 +3993,7 @@
         <v>200</v>
       </c>
       <c r="GR6">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="GS6">
         <v>197</v>
@@ -4325,7 +4325,7 @@
         <v>251</v>
       </c>
       <c r="DE7">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="DF7">
         <v>241</v>
@@ -4403,7 +4403,7 @@
         <v>251</v>
       </c>
       <c r="EE7">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="EF7">
         <v>161</v>
@@ -4415,7 +4415,7 @@
         <v>10</v>
       </c>
       <c r="EI7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="EJ7">
         <v>56</v>
@@ -4586,7 +4586,7 @@
         <v>203</v>
       </c>
       <c r="GN7">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="GO7">
         <v>200</v>
@@ -4924,7 +4924,7 @@
         <v>253</v>
       </c>
       <c r="DC8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="DD8">
         <v>247</v>
@@ -4936,7 +4936,7 @@
         <v>213</v>
       </c>
       <c r="DG8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="DH8">
         <v>143</v>
@@ -5017,10 +5017,10 @@
         <v>78</v>
       </c>
       <c r="EH8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="EI8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="EJ8">
         <v>54</v>
@@ -5188,7 +5188,7 @@
         <v>204</v>
       </c>
       <c r="GM8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="GN8">
         <v>201</v>
@@ -5535,7 +5535,7 @@
         <v>233</v>
       </c>
       <c r="DE9">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="DF9">
         <v>161</v>
@@ -5550,7 +5550,7 @@
         <v>82</v>
       </c>
       <c r="DJ9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="DK9">
         <v>188</v>
@@ -5757,10 +5757,10 @@
         <v>168</v>
       </c>
       <c r="GA9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="GB9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="GC9">
         <v>144</v>
@@ -6137,7 +6137,7 @@
         <v>238</v>
       </c>
       <c r="DD10">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="DE10">
         <v>158</v>
@@ -6152,7 +6152,7 @@
         <v>55</v>
       </c>
       <c r="DI10">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="DJ10">
         <v>108</v>
@@ -6269,7 +6269,7 @@
         <v>181</v>
       </c>
       <c r="EV10">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="EW10">
         <v>165</v>
@@ -6356,13 +6356,13 @@
         <v>180</v>
       </c>
       <c r="FY10">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="FZ10">
         <v>148</v>
       </c>
       <c r="GA10">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="GB10">
         <v>129</v>
@@ -6407,7 +6407,7 @@
         <v>196</v>
       </c>
       <c r="GP10">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="GQ10">
         <v>186</v>
@@ -6964,7 +6964,7 @@
         <v>150</v>
       </c>
       <c r="FZ11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="GA11">
         <v>128</v>
@@ -8578,10 +8578,10 @@
         <v>70</v>
       </c>
       <c r="DK14">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="DL14">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="DM14">
         <v>248</v>
@@ -8695,7 +8695,7 @@
         <v>161</v>
       </c>
       <c r="EX14">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="EY14">
         <v>163</v>
@@ -9183,13 +9183,13 @@
         <v>65</v>
       </c>
       <c r="DK15">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="DL15">
         <v>188</v>
       </c>
       <c r="DM15">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="DN15">
         <v>253</v>
@@ -9258,7 +9258,7 @@
         <v>27</v>
       </c>
       <c r="EJ15">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="EK15">
         <v>102</v>
@@ -9429,7 +9429,7 @@
         <v>177</v>
       </c>
       <c r="GO15">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="GP15">
         <v>178</v>
@@ -9869,13 +9869,13 @@
         <v>102</v>
       </c>
       <c r="EL16">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="EM16">
         <v>159</v>
       </c>
       <c r="EN16">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="EO16">
         <v>158</v>
@@ -9905,7 +9905,7 @@
         <v>161</v>
       </c>
       <c r="EX16">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="EY16">
         <v>163</v>
@@ -10366,7 +10366,7 @@
         <v>115</v>
       </c>
       <c r="DB17">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="DC17">
         <v>53</v>
@@ -10462,7 +10462,7 @@
         <v>70</v>
       </c>
       <c r="EH17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="EI17">
         <v>28</v>
@@ -10492,7 +10492,7 @@
         <v>178</v>
       </c>
       <c r="ER17">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="ES17">
         <v>187</v>
@@ -10510,7 +10510,7 @@
         <v>161</v>
       </c>
       <c r="EX17">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="EY17">
         <v>163</v>
@@ -10929,10 +10929,10 @@
         <v>252</v>
       </c>
       <c r="CN18">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="CO18">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="CP18">
         <v>253</v>
@@ -10971,7 +10971,7 @@
         <v>81</v>
       </c>
       <c r="DB18">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="DC18">
         <v>49</v>
@@ -11109,7 +11109,7 @@
         <v>176</v>
       </c>
       <c r="EV18">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="EW18">
         <v>161</v>
@@ -11193,10 +11193,10 @@
         <v>138</v>
       </c>
       <c r="FX18">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="FY18">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="FZ18">
         <v>127</v>
@@ -11534,10 +11534,10 @@
         <v>250</v>
       </c>
       <c r="CN19">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CO19">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CP19">
         <v>251</v>
@@ -11567,7 +11567,7 @@
         <v>194</v>
       </c>
       <c r="CY19">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="CZ19">
         <v>88</v>
@@ -11600,7 +11600,7 @@
         <v>86</v>
       </c>
       <c r="DJ19">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="DK19">
         <v>118</v>
@@ -11684,7 +11684,7 @@
         <v>102</v>
       </c>
       <c r="EL19">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="EM19">
         <v>156</v>
@@ -11708,7 +11708,7 @@
         <v>185</v>
       </c>
       <c r="ET19">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="EU19">
         <v>174</v>
@@ -11726,7 +11726,7 @@
         <v>162</v>
       </c>
       <c r="EZ19">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="FA19">
         <v>177</v>
@@ -11798,16 +11798,16 @@
         <v>136</v>
       </c>
       <c r="FX19">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="FY19">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="FZ19">
         <v>130</v>
       </c>
       <c r="GA19">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="GB19">
         <v>130</v>
@@ -12136,7 +12136,7 @@
         <v>248</v>
       </c>
       <c r="CM20">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="CN20">
         <v>248</v>
@@ -12322,7 +12322,7 @@
         <v>166</v>
       </c>
       <c r="EW20">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="EX20">
         <v>159</v>
@@ -12756,7 +12756,7 @@
         <v>238</v>
       </c>
       <c r="CR21">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="CS21">
         <v>231</v>
@@ -12933,7 +12933,7 @@
         <v>159</v>
       </c>
       <c r="EY21">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="EZ21">
         <v>164</v>
@@ -13307,7 +13307,7 @@
         <v>253</v>
       </c>
       <c r="BZ22">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="CA22">
         <v>252</v>
@@ -13349,7 +13349,7 @@
         <v>212</v>
       </c>
       <c r="CN22">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="CO22">
         <v>210</v>
@@ -13529,7 +13529,7 @@
         <v>170</v>
       </c>
       <c r="EV22">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="EW22">
         <v>159</v>
@@ -13613,7 +13613,7 @@
         <v>133</v>
       </c>
       <c r="FX22">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="FY22">
         <v>133</v>
@@ -13894,7 +13894,7 @@
         <v>255</v>
       </c>
       <c r="BT23">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BU23">
         <v>254</v>
@@ -13960,7 +13960,7 @@
         <v>161</v>
       </c>
       <c r="CP23">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="CQ23">
         <v>151</v>
@@ -14062,7 +14062,7 @@
         <v>247</v>
       </c>
       <c r="DX23">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="DY23">
         <v>244</v>
@@ -14134,7 +14134,7 @@
         <v>170</v>
       </c>
       <c r="EV23">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="EW23">
         <v>158</v>
@@ -14230,7 +14230,7 @@
         <v>132</v>
       </c>
       <c r="GB23">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="GC23">
         <v>133</v>
@@ -14496,7 +14496,7 @@
         <v>253</v>
       </c>
       <c r="BS24">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BT24">
         <v>252</v>
@@ -14532,7 +14532,7 @@
         <v>214</v>
       </c>
       <c r="CE24">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CF24">
         <v>206</v>
@@ -14553,7 +14553,7 @@
         <v>151</v>
       </c>
       <c r="CL24">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="CM24">
         <v>129</v>
@@ -14667,10 +14667,10 @@
         <v>246</v>
       </c>
       <c r="DX24">
+        <v>244</v>
+      </c>
+      <c r="DY24">
         <v>243</v>
-      </c>
-      <c r="DY24">
-        <v>242</v>
       </c>
       <c r="DZ24">
         <v>246</v>
@@ -14727,7 +14727,7 @@
         <v>168</v>
       </c>
       <c r="ER24">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="ES24">
         <v>177</v>
@@ -15164,7 +15164,7 @@
         <v>104</v>
       </c>
       <c r="CN25">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="CO25">
         <v>106</v>
@@ -15329,10 +15329,10 @@
         <v>157</v>
       </c>
       <c r="EQ25">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="ER25">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="ES25">
         <v>175</v>
@@ -15877,10 +15877,10 @@
         <v>246</v>
       </c>
       <c r="DX26">
+        <v>244</v>
+      </c>
+      <c r="DY26">
         <v>243</v>
-      </c>
-      <c r="DY26">
-        <v>242</v>
       </c>
       <c r="DZ26">
         <v>246</v>
@@ -15952,7 +15952,7 @@
         <v>159</v>
       </c>
       <c r="EW26">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="EX26">
         <v>158</v>
@@ -16194,7 +16194,7 @@
         <v>247</v>
       </c>
       <c r="AF27">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG27">
         <v>247</v>
@@ -16203,7 +16203,7 @@
         <v>247</v>
       </c>
       <c r="AI27">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AJ27">
         <v>246</v>
@@ -16290,7 +16290,7 @@
         <v>253</v>
       </c>
       <c r="BL27">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BM27">
         <v>251</v>
@@ -16317,7 +16317,7 @@
         <v>237</v>
       </c>
       <c r="BU27">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BV27">
         <v>220</v>
@@ -16329,7 +16329,7 @@
         <v>177</v>
       </c>
       <c r="BY27">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BZ27">
         <v>127</v>
@@ -16359,7 +16359,7 @@
         <v>100</v>
       </c>
       <c r="CI27">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="CJ27">
         <v>96</v>
@@ -16778,7 +16778,7 @@
         <v>253</v>
       </c>
       <c r="Y28">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z28">
         <v>251</v>
@@ -16787,7 +16787,7 @@
         <v>249</v>
       </c>
       <c r="AB28">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AC28">
         <v>242</v>
@@ -16799,10 +16799,10 @@
         <v>220</v>
       </c>
       <c r="AF28">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG28">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AH28">
         <v>216</v>
@@ -16928,7 +16928,7 @@
         <v>183</v>
       </c>
       <c r="BW28">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BX28">
         <v>145</v>
@@ -17144,7 +17144,7 @@
         <v>155</v>
       </c>
       <c r="EQ28">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="ER28">
         <v>168</v>
@@ -17395,7 +17395,7 @@
         <v>226</v>
       </c>
       <c r="AC29">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AD29">
         <v>177</v>
@@ -17404,7 +17404,7 @@
         <v>159</v>
       </c>
       <c r="AF29">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG29">
         <v>147</v>
@@ -17419,7 +17419,7 @@
         <v>170</v>
       </c>
       <c r="AK29">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL29">
         <v>207</v>
@@ -17536,13 +17536,13 @@
         <v>132</v>
       </c>
       <c r="BX29">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BY29">
         <v>112</v>
       </c>
       <c r="BZ29">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="CA29">
         <v>101</v>
@@ -17593,7 +17593,7 @@
         <v>101</v>
       </c>
       <c r="CQ29">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="CR29">
         <v>105</v>
@@ -18009,7 +18009,7 @@
         <v>93</v>
       </c>
       <c r="AF30">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG30">
         <v>81</v>
@@ -18027,10 +18027,10 @@
         <v>120</v>
       </c>
       <c r="AL30">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AM30">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN30">
         <v>189</v>
@@ -18102,7 +18102,7 @@
         <v>237</v>
       </c>
       <c r="BK30">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BL30">
         <v>222</v>
@@ -18114,7 +18114,7 @@
         <v>197</v>
       </c>
       <c r="BO30">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="BP30">
         <v>174</v>
@@ -18126,13 +18126,13 @@
         <v>158</v>
       </c>
       <c r="BS30">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="BT30">
         <v>140</v>
       </c>
       <c r="BU30">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BV30">
         <v>121</v>
@@ -18252,7 +18252,7 @@
         <v>133</v>
       </c>
       <c r="DI30">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="DJ30">
         <v>134</v>
@@ -18420,7 +18420,7 @@
         <v>180</v>
       </c>
       <c r="FM30">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="FN30">
         <v>182</v>
@@ -18429,13 +18429,13 @@
         <v>183</v>
       </c>
       <c r="FP30">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="FQ30">
         <v>183</v>
       </c>
       <c r="FR30">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="FS30">
         <v>180</v>
@@ -18596,10 +18596,10 @@
         <v>250</v>
       </c>
       <c r="Z31">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AA31">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AB31">
         <v>121</v>
@@ -18635,13 +18635,13 @@
         <v>73</v>
       </c>
       <c r="AM31">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN31">
         <v>119</v>
       </c>
       <c r="AO31">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AP31">
         <v>174</v>
@@ -18650,7 +18650,7 @@
         <v>204</v>
       </c>
       <c r="AR31">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AS31">
         <v>246</v>
@@ -18662,7 +18662,7 @@
         <v>251</v>
       </c>
       <c r="AV31">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AW31">
         <v>251</v>
@@ -18674,7 +18674,7 @@
         <v>251</v>
       </c>
       <c r="AZ31">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BA31">
         <v>251</v>
@@ -18728,7 +18728,7 @@
         <v>127</v>
       </c>
       <c r="BR31">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BS31">
         <v>116</v>
@@ -18776,7 +18776,7 @@
         <v>107</v>
       </c>
       <c r="CH31">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="CI31">
         <v>98</v>
@@ -19022,10 +19022,10 @@
         <v>180</v>
       </c>
       <c r="FL31">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="FM31">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="FN31">
         <v>180</v>
@@ -19246,7 +19246,7 @@
         <v>61</v>
       </c>
       <c r="AO32">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AP32">
         <v>107</v>
@@ -19267,7 +19267,7 @@
         <v>241</v>
       </c>
       <c r="AV32">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AW32">
         <v>248</v>
@@ -19276,13 +19276,13 @@
         <v>249</v>
       </c>
       <c r="AY32">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AZ32">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BA32">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BB32">
         <v>250</v>
@@ -19291,7 +19291,7 @@
         <v>250</v>
       </c>
       <c r="BD32">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="BE32">
         <v>249</v>
@@ -19303,7 +19303,7 @@
         <v>237</v>
       </c>
       <c r="BH32">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BI32">
         <v>190</v>
@@ -19312,7 +19312,7 @@
         <v>166</v>
       </c>
       <c r="BK32">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BL32">
         <v>129</v>
@@ -19441,10 +19441,10 @@
         <v>92</v>
       </c>
       <c r="DB32">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="DC32">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="DD32">
         <v>123</v>
@@ -19627,7 +19627,7 @@
         <v>178</v>
       </c>
       <c r="FL32">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="FM32">
         <v>178</v>
@@ -19642,13 +19642,13 @@
         <v>180</v>
       </c>
       <c r="FQ32">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="FR32">
         <v>181</v>
       </c>
       <c r="FS32">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="FT32">
         <v>165</v>
@@ -19848,7 +19848,7 @@
         <v>47</v>
       </c>
       <c r="AN33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO33">
         <v>45</v>
@@ -19860,19 +19860,19 @@
         <v>73</v>
       </c>
       <c r="AR33">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AS33">
         <v>125</v>
       </c>
       <c r="AT33">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AU33">
         <v>177</v>
       </c>
       <c r="AV33">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AW33">
         <v>221</v>
@@ -19881,10 +19881,10 @@
         <v>239</v>
       </c>
       <c r="AY33">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AZ33">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BA33">
         <v>248</v>
@@ -19914,7 +19914,7 @@
         <v>142</v>
       </c>
       <c r="BJ33">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BK33">
         <v>101</v>
@@ -19986,10 +19986,10 @@
         <v>113</v>
       </c>
       <c r="CH33">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="CI33">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="CJ33">
         <v>102</v>
@@ -20064,16 +20064,16 @@
         <v>106</v>
       </c>
       <c r="DH33">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="DI33">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="DJ33">
         <v>71</v>
       </c>
       <c r="DK33">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="DL33">
         <v>84</v>
@@ -20103,7 +20103,7 @@
         <v>238</v>
       </c>
       <c r="DU33">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="DV33">
         <v>245</v>
@@ -20229,10 +20229,10 @@
         <v>184</v>
       </c>
       <c r="FK33">
+        <v>178</v>
+      </c>
+      <c r="FL33">
         <v>177</v>
-      </c>
-      <c r="FL33">
-        <v>176</v>
       </c>
       <c r="FM33">
         <v>179</v>
@@ -20241,16 +20241,16 @@
         <v>181</v>
       </c>
       <c r="FO33">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="FP33">
         <v>181</v>
       </c>
       <c r="FQ33">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="FR33">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="FS33">
         <v>177</v>
@@ -20483,10 +20483,10 @@
         <v>155</v>
       </c>
       <c r="AX34">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AY34">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AZ34">
         <v>226</v>
@@ -20498,7 +20498,7 @@
         <v>239</v>
       </c>
       <c r="BC34">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BD34">
         <v>232</v>
@@ -20510,10 +20510,10 @@
         <v>205</v>
       </c>
       <c r="BG34">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BH34">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BI34">
         <v>104</v>
@@ -20522,7 +20522,7 @@
         <v>88</v>
       </c>
       <c r="BK34">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BL34">
         <v>74</v>
@@ -20657,7 +20657,7 @@
         <v>148</v>
       </c>
       <c r="DD34">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DE34">
         <v>129</v>
@@ -20684,7 +20684,7 @@
         <v>53</v>
       </c>
       <c r="DM34">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="DN34">
         <v>77</v>
@@ -20696,7 +20696,7 @@
         <v>140</v>
       </c>
       <c r="DQ34">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="DR34">
         <v>189</v>
@@ -20831,7 +20831,7 @@
         <v>193</v>
       </c>
       <c r="FJ34">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="FK34">
         <v>177</v>
@@ -20852,10 +20852,10 @@
         <v>181</v>
       </c>
       <c r="FQ34">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="FR34">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="FS34">
         <v>179</v>
@@ -21052,7 +21052,7 @@
         <v>58</v>
       </c>
       <c r="AL35">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AM35">
         <v>52</v>
@@ -21067,7 +21067,7 @@
         <v>50</v>
       </c>
       <c r="AQ35">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AR35">
         <v>50</v>
@@ -21094,7 +21094,7 @@
         <v>140</v>
       </c>
       <c r="AZ35">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BA35">
         <v>175</v>
@@ -21103,7 +21103,7 @@
         <v>184</v>
       </c>
       <c r="BC35">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BD35">
         <v>178</v>
@@ -21118,7 +21118,7 @@
         <v>121</v>
       </c>
       <c r="BH35">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="BI35">
         <v>77</v>
@@ -21265,7 +21265,7 @@
         <v>148</v>
       </c>
       <c r="DE35">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DF35">
         <v>80</v>
@@ -21304,7 +21304,7 @@
         <v>127</v>
       </c>
       <c r="DR35">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DS35">
         <v>180</v>
@@ -21334,13 +21334,13 @@
         <v>248</v>
       </c>
       <c r="EB35">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="EC35">
         <v>253</v>
       </c>
       <c r="ED35">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="EE35">
         <v>202</v>
@@ -21436,7 +21436,7 @@
         <v>191</v>
       </c>
       <c r="FJ35">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="FK35">
         <v>177</v>
@@ -21454,7 +21454,7 @@
         <v>181</v>
       </c>
       <c r="FP35">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="FQ35">
         <v>181</v>
@@ -21720,13 +21720,13 @@
         <v>94</v>
       </c>
       <c r="BG36">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BH36">
         <v>71</v>
       </c>
       <c r="BI36">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BJ36">
         <v>63</v>
@@ -21801,7 +21801,7 @@
         <v>90</v>
       </c>
       <c r="CH36">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="CI36">
         <v>104</v>
@@ -21813,7 +21813,7 @@
         <v>109</v>
       </c>
       <c r="CL36">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CM36">
         <v>116</v>
@@ -21843,7 +21843,7 @@
         <v>121</v>
       </c>
       <c r="CV36">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="CW36">
         <v>118</v>
@@ -21858,10 +21858,10 @@
         <v>132</v>
       </c>
       <c r="DA36">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="DB36">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="DC36">
         <v>175</v>
@@ -21870,7 +21870,7 @@
         <v>147</v>
       </c>
       <c r="DE36">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="DF36">
         <v>85</v>
@@ -21915,7 +21915,7 @@
         <v>150</v>
       </c>
       <c r="DT36">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="DU36">
         <v>200</v>
@@ -21936,7 +21936,7 @@
         <v>243</v>
       </c>
       <c r="EA36">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="EB36">
         <v>252</v>
@@ -22319,7 +22319,7 @@
         <v>60</v>
       </c>
       <c r="BE37">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BF37">
         <v>60</v>
@@ -22361,7 +22361,7 @@
         <v>85</v>
       </c>
       <c r="BS37">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BT37">
         <v>100</v>
@@ -22433,7 +22433,7 @@
         <v>144</v>
       </c>
       <c r="CQ37">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CR37">
         <v>148</v>
@@ -22481,7 +22481,7 @@
         <v>117</v>
       </c>
       <c r="DG37">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="DH37">
         <v>165</v>
@@ -22493,7 +22493,7 @@
         <v>205</v>
       </c>
       <c r="DK37">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="DL37">
         <v>188</v>
@@ -22529,13 +22529,13 @@
         <v>177</v>
       </c>
       <c r="DW37">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="DX37">
         <v>218</v>
       </c>
       <c r="DY37">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="DZ37">
         <v>239</v>
@@ -22691,7 +22691,7 @@
         <v>126</v>
       </c>
       <c r="FY37">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="FZ37">
         <v>127</v>
@@ -22828,7 +22828,7 @@
         <v>253</v>
       </c>
       <c r="Y38">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Z38">
         <v>203</v>
@@ -22837,7 +22837,7 @@
         <v>136</v>
       </c>
       <c r="AB38">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AC38">
         <v>53</v>
@@ -22852,7 +22852,7 @@
         <v>81</v>
       </c>
       <c r="AG38">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH38">
         <v>77</v>
@@ -22909,7 +22909,7 @@
         <v>45</v>
       </c>
       <c r="AZ38">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BA38">
         <v>47</v>
@@ -23026,7 +23026,7 @@
         <v>117</v>
       </c>
       <c r="CM38">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="CN38">
         <v>127</v>
@@ -23068,13 +23068,13 @@
         <v>136</v>
       </c>
       <c r="DA38">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="DB38">
         <v>182</v>
       </c>
       <c r="DC38">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="DD38">
         <v>162</v>
@@ -23104,16 +23104,16 @@
         <v>182</v>
       </c>
       <c r="DM38">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DN38">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DO38">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="DP38">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="DQ38">
         <v>135</v>
@@ -23125,16 +23125,16 @@
         <v>129</v>
       </c>
       <c r="DT38">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="DU38">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="DV38">
         <v>142</v>
       </c>
       <c r="DW38">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DX38">
         <v>185</v>
@@ -23143,13 +23143,13 @@
         <v>208</v>
       </c>
       <c r="DZ38">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="EA38">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="EB38">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="EC38">
         <v>252</v>
@@ -23239,7 +23239,7 @@
         <v>200</v>
       </c>
       <c r="FF38">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="FG38">
         <v>201</v>
@@ -23433,7 +23433,7 @@
         <v>253</v>
       </c>
       <c r="Y39">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Z39">
         <v>216</v>
@@ -23478,7 +23478,7 @@
         <v>73</v>
       </c>
       <c r="AN39">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AO39">
         <v>75</v>
@@ -23514,7 +23514,7 @@
         <v>40</v>
       </c>
       <c r="AZ39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="BA39">
         <v>48</v>
@@ -23691,7 +23691,7 @@
         <v>164</v>
       </c>
       <c r="DG39">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="DH39">
         <v>206</v>
@@ -23703,7 +23703,7 @@
         <v>180</v>
       </c>
       <c r="DK39">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DL39">
         <v>143</v>
@@ -23739,7 +23739,7 @@
         <v>130</v>
       </c>
       <c r="DW39">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="DX39">
         <v>154</v>
@@ -23928,7 +23928,7 @@
         <v>133</v>
       </c>
       <c r="GH39">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="GI39">
         <v>132</v>
@@ -24125,19 +24125,19 @@
         <v>47</v>
       </c>
       <c r="BB40">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BC40">
         <v>54</v>
       </c>
       <c r="BD40">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BE40">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BF40">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BG40">
         <v>52</v>
@@ -24290,13 +24290,13 @@
         <v>179</v>
       </c>
       <c r="DE40">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DF40">
         <v>166</v>
       </c>
       <c r="DG40">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DH40">
         <v>209</v>
@@ -24323,7 +24323,7 @@
         <v>169</v>
       </c>
       <c r="DP40">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="DQ40">
         <v>164</v>
@@ -24362,7 +24362,7 @@
         <v>242</v>
       </c>
       <c r="EC40">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="ED40">
         <v>248</v>
@@ -24533,7 +24533,7 @@
         <v>129</v>
       </c>
       <c r="GH40">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="GI40">
         <v>128</v>
@@ -24664,7 +24664,7 @@
         <v>83</v>
       </c>
       <c r="AF41">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG41">
         <v>98</v>
@@ -24688,7 +24688,7 @@
         <v>86</v>
       </c>
       <c r="AN41">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AO41">
         <v>106</v>
@@ -24907,7 +24907,7 @@
         <v>205</v>
       </c>
       <c r="DI41">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="DJ41">
         <v>150</v>
@@ -24922,7 +24922,7 @@
         <v>83</v>
       </c>
       <c r="DN41">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="DO41">
         <v>153</v>
@@ -25141,7 +25141,7 @@
         <v>125</v>
       </c>
       <c r="GI41">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="GJ41">
         <v>120</v>
@@ -25254,7 +25254,7 @@
         <v>246</v>
       </c>
       <c r="AA42">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AB42">
         <v>133</v>
@@ -25272,7 +25272,7 @@
         <v>92</v>
       </c>
       <c r="AG42">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AH42">
         <v>96</v>
@@ -25365,13 +25365,13 @@
         <v>79</v>
       </c>
       <c r="BL42">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BM42">
         <v>84</v>
       </c>
       <c r="BN42">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BO42">
         <v>90</v>
@@ -25467,10 +25467,10 @@
         <v>146</v>
       </c>
       <c r="CT42">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="CU42">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="CV42">
         <v>154</v>
@@ -25512,7 +25512,7 @@
         <v>197</v>
       </c>
       <c r="DI42">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="DJ42">
         <v>173</v>
@@ -25548,7 +25548,7 @@
         <v>163</v>
       </c>
       <c r="DU42">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="DV42">
         <v>142</v>
@@ -25560,7 +25560,7 @@
         <v>113</v>
       </c>
       <c r="DY42">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="DZ42">
         <v>136</v>
@@ -25569,7 +25569,7 @@
         <v>170</v>
       </c>
       <c r="EB42">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="EC42">
         <v>236</v>
@@ -25740,13 +25740,13 @@
         <v>122</v>
       </c>
       <c r="GG42">
+        <v>122</v>
+      </c>
+      <c r="GH42">
         <v>121</v>
       </c>
-      <c r="GH42">
-        <v>120</v>
-      </c>
       <c r="GI42">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="GJ42">
         <v>116</v>
@@ -25868,7 +25868,7 @@
         <v>94</v>
       </c>
       <c r="AD43">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE43">
         <v>78</v>
@@ -25970,7 +25970,7 @@
         <v>85</v>
       </c>
       <c r="BL43">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BM43">
         <v>85</v>
@@ -26036,13 +26036,13 @@
         <v>71</v>
       </c>
       <c r="CH43">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CI43">
         <v>108</v>
       </c>
       <c r="CJ43">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="CK43">
         <v>147</v>
@@ -26069,7 +26069,7 @@
         <v>156</v>
       </c>
       <c r="CS43">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="CT43">
         <v>166</v>
@@ -26126,7 +26126,7 @@
         <v>151</v>
       </c>
       <c r="DL43">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="DM43">
         <v>86</v>
@@ -26482,7 +26482,7 @@
         <v>80</v>
       </c>
       <c r="AG44">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH44">
         <v>85</v>
@@ -26500,7 +26500,7 @@
         <v>103</v>
       </c>
       <c r="AM44">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AN44">
         <v>121</v>
@@ -26707,7 +26707,7 @@
         <v>194</v>
       </c>
       <c r="DD44">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="DE44">
         <v>192</v>
@@ -26734,10 +26734,10 @@
         <v>152</v>
       </c>
       <c r="DM44">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="DN44">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="DO44">
         <v>169</v>
@@ -26845,13 +26845,13 @@
         <v>137</v>
       </c>
       <c r="EX44">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="EY44">
         <v>140</v>
       </c>
       <c r="EZ44">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="FA44">
         <v>160</v>
@@ -27078,13 +27078,13 @@
         <v>139</v>
       </c>
       <c r="AD45">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE45">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF45">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG45">
         <v>80</v>
@@ -27150,10 +27150,10 @@
         <v>54</v>
       </c>
       <c r="BB45">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BC45">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BD45">
         <v>49</v>
@@ -27246,7 +27246,7 @@
         <v>113</v>
       </c>
       <c r="CH45">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CI45">
         <v>74</v>
@@ -27396,7 +27396,7 @@
         <v>180</v>
       </c>
       <c r="EF45">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="EG45">
         <v>40</v>
@@ -27453,7 +27453,7 @@
         <v>139</v>
       </c>
       <c r="EY45">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="EZ45">
         <v>146</v>
@@ -27815,7 +27815,7 @@
         <v>68</v>
       </c>
       <c r="BV46">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BW46">
         <v>85</v>
@@ -27848,7 +27848,7 @@
         <v>194</v>
       </c>
       <c r="CG46">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="CH46">
         <v>138</v>
@@ -27920,7 +27920,7 @@
         <v>135</v>
       </c>
       <c r="DE46">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DF46">
         <v>120</v>
@@ -27938,13 +27938,13 @@
         <v>128</v>
       </c>
       <c r="DK46">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="DL46">
         <v>178</v>
       </c>
       <c r="DM46">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="DN46">
         <v>190</v>
@@ -27998,7 +27998,7 @@
         <v>195</v>
       </c>
       <c r="EE46">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="EF46">
         <v>111</v>
@@ -28013,7 +28013,7 @@
         <v>32</v>
       </c>
       <c r="EJ46">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="EK46">
         <v>108</v>
@@ -28052,7 +28052,7 @@
         <v>135</v>
       </c>
       <c r="EW46">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="EX46">
         <v>138</v>
@@ -28384,7 +28384,7 @@
         <v>74</v>
       </c>
       <c r="BJ47">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BK47">
         <v>85</v>
@@ -28402,7 +28402,7 @@
         <v>84</v>
       </c>
       <c r="BP47">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BQ47">
         <v>87</v>
@@ -28438,7 +28438,7 @@
         <v>201</v>
       </c>
       <c r="CB47">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="CC47">
         <v>208</v>
@@ -28465,19 +28465,19 @@
         <v>107</v>
       </c>
       <c r="CK47">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CL47">
         <v>79</v>
       </c>
       <c r="CM47">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CN47">
         <v>144</v>
       </c>
       <c r="CO47">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CP47">
         <v>178</v>
@@ -28603,7 +28603,7 @@
         <v>176</v>
       </c>
       <c r="EE47">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="EF47">
         <v>105</v>
@@ -28624,7 +28624,7 @@
         <v>114</v>
       </c>
       <c r="EL47">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="EM47">
         <v>151</v>
@@ -28726,7 +28726,7 @@
         <v>128</v>
       </c>
       <c r="FT47">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="FU47">
         <v>122</v>
@@ -28995,7 +28995,7 @@
         <v>91</v>
       </c>
       <c r="BL48">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BM48">
         <v>83</v>
@@ -29022,16 +29022,16 @@
         <v>78</v>
       </c>
       <c r="BU48">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BV48">
         <v>132</v>
       </c>
       <c r="BW48">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BX48">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BY48">
         <v>167</v>
@@ -29262,7 +29262,7 @@
         <v>133</v>
       </c>
       <c r="EW48">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EX48">
         <v>137</v>
@@ -29328,7 +29328,7 @@
         <v>130</v>
       </c>
       <c r="FS48">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="FT48">
         <v>122</v>
@@ -29615,13 +29615,13 @@
         <v>70</v>
       </c>
       <c r="BQ49">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BR49">
         <v>77</v>
       </c>
       <c r="BS49">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BT49">
         <v>92</v>
@@ -29690,7 +29690,7 @@
         <v>134</v>
       </c>
       <c r="CP49">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="CQ49">
         <v>113</v>
@@ -29774,7 +29774,7 @@
         <v>186</v>
       </c>
       <c r="DR49">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DS49">
         <v>170</v>
@@ -30103,13 +30103,13 @@
         <v>249</v>
       </c>
       <c r="AD50">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AE50">
         <v>216</v>
       </c>
       <c r="AF50">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG50">
         <v>111</v>
@@ -30118,7 +30118,7 @@
         <v>78</v>
       </c>
       <c r="AI50">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ50">
         <v>75</v>
@@ -30241,7 +30241,7 @@
         <v>165</v>
       </c>
       <c r="BX50">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BY50">
         <v>189</v>
@@ -30268,7 +30268,7 @@
         <v>60</v>
       </c>
       <c r="CG50">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="CH50">
         <v>144</v>
@@ -30343,10 +30343,10 @@
         <v>23</v>
       </c>
       <c r="DF50">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="DG50">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="DH50">
         <v>49</v>
@@ -30355,7 +30355,7 @@
         <v>47</v>
       </c>
       <c r="DJ50">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="DK50">
         <v>102</v>
@@ -30385,7 +30385,7 @@
         <v>178</v>
       </c>
       <c r="DT50">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="DU50">
         <v>164</v>
@@ -30711,10 +30711,10 @@
         <v>249</v>
       </c>
       <c r="AE51">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF51">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG51">
         <v>166</v>
@@ -30723,7 +30723,7 @@
         <v>114</v>
       </c>
       <c r="AI51">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AJ51">
         <v>78</v>
@@ -30804,13 +30804,13 @@
         <v>78</v>
       </c>
       <c r="BJ51">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BK51">
         <v>71</v>
       </c>
       <c r="BL51">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BM51">
         <v>74</v>
@@ -30852,13 +30852,13 @@
         <v>182</v>
       </c>
       <c r="BZ51">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CA51">
         <v>208</v>
       </c>
       <c r="CB51">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="CC51">
         <v>187</v>
@@ -30867,7 +30867,7 @@
         <v>136</v>
       </c>
       <c r="CE51">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="CF51">
         <v>58</v>
@@ -30876,7 +30876,7 @@
         <v>82</v>
       </c>
       <c r="CH51">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="CI51">
         <v>169</v>
@@ -30891,7 +30891,7 @@
         <v>133</v>
       </c>
       <c r="CM51">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="CN51">
         <v>126</v>
@@ -30936,7 +30936,7 @@
         <v>59</v>
       </c>
       <c r="DB51">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="DC51">
         <v>43</v>
@@ -30954,7 +30954,7 @@
         <v>44</v>
       </c>
       <c r="DH51">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="DI51">
         <v>53</v>
@@ -30990,10 +30990,10 @@
         <v>152</v>
       </c>
       <c r="DT51">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DU51">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DV51">
         <v>156</v>
@@ -31014,7 +31014,7 @@
         <v>105</v>
       </c>
       <c r="EB51">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="EC51">
         <v>136</v>
@@ -31319,13 +31319,13 @@
         <v>250</v>
       </c>
       <c r="AF52">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AG52">
         <v>211</v>
       </c>
       <c r="AH52">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AI52">
         <v>111</v>
@@ -31448,13 +31448,13 @@
         <v>159</v>
       </c>
       <c r="BW52">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BX52">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BY52">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BZ52">
         <v>192</v>
@@ -31466,7 +31466,7 @@
         <v>199</v>
       </c>
       <c r="CC52">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CD52">
         <v>152</v>
@@ -31990,7 +31990,7 @@
         <v>57</v>
       </c>
       <c r="BB53">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BC53">
         <v>81</v>
@@ -32020,7 +32020,7 @@
         <v>69</v>
       </c>
       <c r="BL53">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BM53">
         <v>88</v>
@@ -32059,7 +32059,7 @@
         <v>149</v>
       </c>
       <c r="BY53">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BZ53">
         <v>172</v>
@@ -32068,10 +32068,10 @@
         <v>180</v>
       </c>
       <c r="CB53">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CC53">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CD53">
         <v>174</v>
@@ -32098,7 +32098,7 @@
         <v>167</v>
       </c>
       <c r="CL53">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="CM53">
         <v>143</v>
@@ -32170,7 +32170,7 @@
         <v>64</v>
       </c>
       <c r="DJ53">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="DK53">
         <v>121</v>
@@ -32206,7 +32206,7 @@
         <v>129</v>
       </c>
       <c r="DV53">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="DW53">
         <v>151</v>
@@ -32242,7 +32242,7 @@
         <v>100</v>
       </c>
       <c r="EH53">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="EI53">
         <v>68</v>
@@ -32637,7 +32637,7 @@
         <v>117</v>
       </c>
       <c r="BP54">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BQ54">
         <v>141</v>
@@ -32661,13 +32661,13 @@
         <v>161</v>
       </c>
       <c r="BX54">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BY54">
         <v>152</v>
       </c>
       <c r="BZ54">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="CA54">
         <v>171</v>
@@ -32682,7 +32682,7 @@
         <v>174</v>
       </c>
       <c r="CE54">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="CF54">
         <v>144</v>
@@ -32775,7 +32775,7 @@
         <v>69</v>
       </c>
       <c r="DJ54">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="DK54">
         <v>104</v>
@@ -32808,10 +32808,10 @@
         <v>133</v>
       </c>
       <c r="DU54">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="DV54">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="DW54">
         <v>139</v>
@@ -33368,7 +33368,7 @@
         <v>126</v>
       </c>
       <c r="DF55">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="DG55">
         <v>105</v>
@@ -33760,7 +33760,7 @@
         <v>94</v>
       </c>
       <c r="AM56">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AN56">
         <v>75</v>
@@ -33799,7 +33799,7 @@
         <v>85</v>
       </c>
       <c r="AZ56">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BA56">
         <v>111</v>
@@ -33829,7 +33829,7 @@
         <v>109</v>
       </c>
       <c r="BJ56">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BK56">
         <v>108</v>
@@ -33877,7 +33877,7 @@
         <v>140</v>
       </c>
       <c r="BZ56">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="CA56">
         <v>130</v>
@@ -34374,7 +34374,7 @@
         <v>80</v>
       </c>
       <c r="AP57">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AQ57">
         <v>90</v>
@@ -34449,7 +34449,7 @@
         <v>113</v>
       </c>
       <c r="BO57">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BP57">
         <v>104</v>
@@ -34464,13 +34464,13 @@
         <v>106</v>
       </c>
       <c r="BT57">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BU57">
         <v>107</v>
       </c>
       <c r="BV57">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BW57">
         <v>117</v>
@@ -34494,16 +34494,16 @@
         <v>99</v>
       </c>
       <c r="CD57">
+        <v>104</v>
+      </c>
+      <c r="CE57">
         <v>103</v>
       </c>
-      <c r="CE57">
+      <c r="CF57">
         <v>102</v>
       </c>
-      <c r="CF57">
-        <v>101</v>
-      </c>
       <c r="CG57">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="CH57">
         <v>93</v>
@@ -34587,16 +34587,16 @@
         <v>71</v>
       </c>
       <c r="DI57">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="DJ57">
         <v>45</v>
       </c>
       <c r="DK57">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="DL57">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="DM57">
         <v>88</v>
@@ -34728,7 +34728,7 @@
         <v>179</v>
       </c>
       <c r="FD57">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="FE57">
         <v>183</v>
@@ -34979,10 +34979,10 @@
         <v>85</v>
       </c>
       <c r="AP58">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AQ58">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AR58">
         <v>89</v>
@@ -35186,7 +35186,7 @@
         <v>96</v>
       </c>
       <c r="DG58">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="DH58">
         <v>68</v>
@@ -35246,7 +35246,7 @@
         <v>118</v>
       </c>
       <c r="EA58">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="EB58">
         <v>133</v>
@@ -35273,7 +35273,7 @@
         <v>119</v>
       </c>
       <c r="EJ58">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="EK58">
         <v>121</v>
@@ -35363,10 +35363,10 @@
         <v>126</v>
       </c>
       <c r="FN58">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="FO58">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="FP58">
         <v>107</v>
@@ -35587,10 +35587,10 @@
         <v>77</v>
       </c>
       <c r="AQ59">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AR59">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AS59">
         <v>110</v>
@@ -35659,13 +35659,13 @@
         <v>95</v>
       </c>
       <c r="BO59">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BP59">
         <v>90</v>
       </c>
       <c r="BQ59">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BR59">
         <v>91</v>
@@ -35689,7 +35689,7 @@
         <v>86</v>
       </c>
       <c r="BY59">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BZ59">
         <v>83</v>
@@ -35875,19 +35875,19 @@
         <v>148</v>
       </c>
       <c r="EI59">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EJ59">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="EK59">
         <v>122</v>
       </c>
       <c r="EL59">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EM59">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="EN59">
         <v>134</v>
@@ -35911,10 +35911,10 @@
         <v>132</v>
       </c>
       <c r="EU59">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="EV59">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="EW59">
         <v>119</v>
@@ -36049,7 +36049,7 @@
         <v>84</v>
       </c>
       <c r="GO59">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="GP59">
         <v>70</v>
@@ -36061,7 +36061,7 @@
         <v>63</v>
       </c>
       <c r="GS59">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:201">
@@ -36216,10 +36216,10 @@
         <v>138</v>
       </c>
       <c r="AY60">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AZ60">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BA60">
         <v>127</v>
@@ -36396,7 +36396,7 @@
         <v>85</v>
       </c>
       <c r="DG60">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="DH60">
         <v>72</v>
@@ -36462,7 +36462,7 @@
         <v>127</v>
       </c>
       <c r="EC60">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="ED60">
         <v>128</v>
@@ -36486,7 +36486,7 @@
         <v>124</v>
       </c>
       <c r="EK60">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="EL60">
         <v>137</v>
@@ -36585,7 +36585,7 @@
         <v>104</v>
       </c>
       <c r="FR60">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="FS60">
         <v>108</v>
@@ -36818,7 +36818,7 @@
         <v>139</v>
       </c>
       <c r="AX61">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AY61">
         <v>132</v>
@@ -36953,7 +36953,7 @@
         <v>75</v>
       </c>
       <c r="CQ61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CR61">
         <v>61</v>
@@ -37070,7 +37070,7 @@
         <v>122</v>
       </c>
       <c r="ED61">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="EE61">
         <v>126</v>
@@ -37109,10 +37109,10 @@
         <v>139</v>
       </c>
       <c r="EQ61">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="ER61">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="ES61">
         <v>140</v>
@@ -37127,7 +37127,7 @@
         <v>120</v>
       </c>
       <c r="EW61">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="EX61">
         <v>119</v>
@@ -37480,7 +37480,7 @@
         <v>78</v>
       </c>
       <c r="BQ62">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BR62">
         <v>60</v>
@@ -37621,10 +37621,10 @@
         <v>85</v>
       </c>
       <c r="DL62">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="DM62">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="DN62">
         <v>58</v>
@@ -37678,7 +37678,7 @@
         <v>121</v>
       </c>
       <c r="EE62">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="EF62">
         <v>129</v>
@@ -38073,7 +38073,7 @@
         <v>84</v>
       </c>
       <c r="BM63">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BN63">
         <v>89</v>
@@ -38088,7 +38088,7 @@
         <v>67</v>
       </c>
       <c r="BR63">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BS63">
         <v>61</v>
@@ -38220,22 +38220,22 @@
         <v>91</v>
       </c>
       <c r="DJ63">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="DK63">
         <v>96</v>
       </c>
       <c r="DL63">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="DM63">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="DN63">
         <v>85</v>
       </c>
       <c r="DO63">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="DP63">
         <v>64</v>
@@ -38445,7 +38445,7 @@
         <v>84</v>
       </c>
       <c r="GG63">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="GH63">
         <v>84</v>
@@ -38672,7 +38672,7 @@
         <v>88</v>
       </c>
       <c r="BK64">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BL64">
         <v>86</v>
@@ -38681,7 +38681,7 @@
         <v>88</v>
       </c>
       <c r="BN64">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BO64">
         <v>87</v>
@@ -38732,7 +38732,7 @@
         <v>67</v>
       </c>
       <c r="CE64">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CF64">
         <v>65</v>
@@ -38831,16 +38831,16 @@
         <v>99</v>
       </c>
       <c r="DL64">
+        <v>98</v>
+      </c>
+      <c r="DM64">
+        <v>101</v>
+      </c>
+      <c r="DN64">
+        <v>101</v>
+      </c>
+      <c r="DO64">
         <v>99</v>
-      </c>
-      <c r="DM64">
-        <v>102</v>
-      </c>
-      <c r="DN64">
-        <v>102</v>
-      </c>
-      <c r="DO64">
-        <v>100</v>
       </c>
       <c r="DP64">
         <v>87</v>
@@ -38969,7 +38969,7 @@
         <v>178</v>
       </c>
       <c r="FF64">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="FG64">
         <v>175</v>
@@ -39439,19 +39439,19 @@
         <v>98</v>
       </c>
       <c r="DM65">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="DN65">
         <v>104</v>
       </c>
       <c r="DO65">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DP65">
         <v>105</v>
       </c>
       <c r="DQ65">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="DR65">
         <v>69</v>
@@ -39574,7 +39574,7 @@
         <v>178</v>
       </c>
       <c r="FF65">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="FG65">
         <v>174</v>
@@ -39816,7 +39816,7 @@
         <v>238</v>
       </c>
       <c r="AO66">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AP66">
         <v>175</v>
@@ -39867,7 +39867,7 @@
         <v>101</v>
       </c>
       <c r="BF66">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BG66">
         <v>97</v>
@@ -39888,7 +39888,7 @@
         <v>104</v>
       </c>
       <c r="BM66">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BN66">
         <v>99</v>
@@ -40011,13 +40011,13 @@
         <v>69</v>
       </c>
       <c r="DB66">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="DC66">
         <v>49</v>
       </c>
       <c r="DD66">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="DE66">
         <v>52</v>
@@ -40056,10 +40056,10 @@
         <v>105</v>
       </c>
       <c r="DQ66">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="DR66">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="DS66">
         <v>62</v>
@@ -40107,7 +40107,7 @@
         <v>145</v>
       </c>
       <c r="EH66">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="EI66">
         <v>160</v>
@@ -40418,7 +40418,7 @@
         <v>247</v>
       </c>
       <c r="AN67">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO67">
         <v>210</v>
@@ -40580,7 +40580,7 @@
         <v>78</v>
       </c>
       <c r="CP67">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="CQ67">
         <v>64</v>
@@ -40661,7 +40661,7 @@
         <v>98</v>
       </c>
       <c r="DQ67">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="DR67">
         <v>89</v>
@@ -40694,7 +40694,7 @@
         <v>98</v>
       </c>
       <c r="EB67">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="EC67">
         <v>118</v>
@@ -40799,16 +40799,16 @@
         <v>119</v>
       </c>
       <c r="FK67">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="FL67">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="FM67">
+        <v>87</v>
+      </c>
+      <c r="FN67">
         <v>86</v>
-      </c>
-      <c r="FN67">
-        <v>85</v>
       </c>
       <c r="FO67">
         <v>88</v>
@@ -40892,13 +40892,13 @@
         <v>79</v>
       </c>
       <c r="GP67">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="GQ67">
         <v>71</v>
       </c>
       <c r="GR67">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="GS67">
         <v>64</v>
@@ -41188,7 +41188,7 @@
         <v>66</v>
       </c>
       <c r="CQ68">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CR68">
         <v>67</v>
@@ -41269,7 +41269,7 @@
         <v>84</v>
       </c>
       <c r="DR68">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="DS68">
         <v>74</v>
@@ -41410,10 +41410,10 @@
         <v>88</v>
       </c>
       <c r="FM68">
+        <v>84</v>
+      </c>
+      <c r="FN68">
         <v>83</v>
-      </c>
-      <c r="FN68">
-        <v>82</v>
       </c>
       <c r="FO68">
         <v>85</v>
@@ -41500,7 +41500,7 @@
         <v>73</v>
       </c>
       <c r="GQ68">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="GR68">
         <v>65</v>
@@ -41655,7 +41655,7 @@
         <v>103</v>
       </c>
       <c r="AW69">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AX69">
         <v>100</v>
@@ -41712,7 +41712,7 @@
         <v>119</v>
       </c>
       <c r="BP69">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BQ69">
         <v>115</v>
@@ -41847,7 +41847,7 @@
         <v>62</v>
       </c>
       <c r="DI69">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="DJ69">
         <v>84</v>
@@ -42105,7 +42105,7 @@
         <v>70</v>
       </c>
       <c r="GQ69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GR69">
         <v>64</v>
@@ -42245,7 +42245,7 @@
         <v>151</v>
       </c>
       <c r="AR70">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS70">
         <v>130</v>
@@ -42260,7 +42260,7 @@
         <v>103</v>
       </c>
       <c r="AW70">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AX70">
         <v>96</v>
@@ -42449,7 +42449,7 @@
         <v>55</v>
       </c>
       <c r="DH70">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="DI70">
         <v>67</v>
@@ -42503,7 +42503,7 @@
         <v>76</v>
       </c>
       <c r="DZ70">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="EA70">
         <v>111</v>
@@ -42659,10 +42659,10 @@
         <v>83</v>
       </c>
       <c r="FZ70">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="GA70">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="GB70">
         <v>76</v>
@@ -42844,13 +42844,13 @@
         <v>223</v>
       </c>
       <c r="AP71">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AQ71">
         <v>161</v>
       </c>
       <c r="AR71">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AS71">
         <v>124</v>
@@ -42865,7 +42865,7 @@
         <v>100</v>
       </c>
       <c r="AW71">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AX71">
         <v>90</v>
@@ -42889,7 +42889,7 @@
         <v>89</v>
       </c>
       <c r="BE71">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="BF71">
         <v>101</v>
@@ -42991,7 +42991,7 @@
         <v>49</v>
       </c>
       <c r="CM71">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CN71">
         <v>60</v>
@@ -43063,10 +43063,10 @@
         <v>68</v>
       </c>
       <c r="DK71">
+        <v>71</v>
+      </c>
+      <c r="DL71">
         <v>72</v>
-      </c>
-      <c r="DL71">
-        <v>73</v>
       </c>
       <c r="DM71">
         <v>77</v>
@@ -43102,7 +43102,7 @@
         <v>59</v>
       </c>
       <c r="DX71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="DY71">
         <v>82</v>
@@ -43228,7 +43228,7 @@
         <v>80</v>
       </c>
       <c r="FN71">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="FO71">
         <v>77</v>
@@ -43449,7 +43449,7 @@
         <v>229</v>
       </c>
       <c r="AP72">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AQ72">
         <v>170</v>
@@ -43464,7 +43464,7 @@
         <v>112</v>
       </c>
       <c r="AU72">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AV72">
         <v>97</v>
@@ -43701,7 +43701,7 @@
         <v>57</v>
       </c>
       <c r="DV72">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="DW72">
         <v>70</v>
@@ -43731,7 +43731,7 @@
         <v>148</v>
       </c>
       <c r="EF72">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="EG72">
         <v>161</v>
@@ -43833,7 +43833,7 @@
         <v>77</v>
       </c>
       <c r="FN72">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="FO72">
         <v>76</v>
@@ -43866,13 +43866,13 @@
         <v>77</v>
       </c>
       <c r="FY72">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="FZ72">
         <v>67</v>
       </c>
       <c r="GA72">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="GB72">
         <v>67</v>
@@ -44054,13 +44054,13 @@
         <v>234</v>
       </c>
       <c r="AP73">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AQ73">
         <v>182</v>
       </c>
       <c r="AR73">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AS73">
         <v>118</v>
@@ -44069,16 +44069,16 @@
         <v>106</v>
       </c>
       <c r="AU73">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AV73">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AW73">
         <v>83</v>
       </c>
       <c r="AX73">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY73">
         <v>83</v>
@@ -44330,13 +44330,13 @@
         <v>123</v>
       </c>
       <c r="ED73">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EE73">
         <v>144</v>
       </c>
       <c r="EF73">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="EG73">
         <v>158</v>
@@ -44677,7 +44677,7 @@
         <v>95</v>
       </c>
       <c r="AV74">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AW74">
         <v>83</v>
@@ -44794,7 +44794,7 @@
         <v>56</v>
       </c>
       <c r="CI74">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="CJ74">
         <v>59</v>
@@ -45043,7 +45043,7 @@
         <v>69</v>
       </c>
       <c r="FN74">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="FO74">
         <v>74</v>
@@ -45282,7 +45282,7 @@
         <v>97</v>
       </c>
       <c r="AV75">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AW75">
         <v>87</v>
@@ -45396,10 +45396,10 @@
         <v>40</v>
       </c>
       <c r="CH75">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CI75">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="CJ75">
         <v>48</v>
@@ -45465,10 +45465,10 @@
         <v>59</v>
       </c>
       <c r="DE75">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="DF75">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DG75">
         <v>46</v>
@@ -45579,7 +45579,7 @@
         <v>120</v>
       </c>
       <c r="EQ75">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="ER75">
         <v>127</v>
@@ -45648,7 +45648,7 @@
         <v>67</v>
       </c>
       <c r="FN75">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="FO75">
         <v>73</v>
@@ -45684,7 +45684,7 @@
         <v>55</v>
       </c>
       <c r="FZ75">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="GA75">
         <v>54</v>
@@ -45884,16 +45884,16 @@
         <v>131</v>
       </c>
       <c r="AU76">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AV76">
         <v>92</v>
       </c>
       <c r="AW76">
+        <v>90</v>
+      </c>
+      <c r="AX76">
         <v>91</v>
-      </c>
-      <c r="AX76">
-        <v>92</v>
       </c>
       <c r="AY76">
         <v>91</v>
@@ -46157,7 +46157,7 @@
         <v>118</v>
       </c>
       <c r="EH76">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="EI76">
         <v>111</v>
@@ -46181,10 +46181,10 @@
         <v>117</v>
       </c>
       <c r="EP76">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="EQ76">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="ER76">
         <v>123</v>
@@ -46241,7 +46241,7 @@
         <v>86</v>
       </c>
       <c r="FJ76">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="FK76">
         <v>68</v>
@@ -46292,10 +46292,10 @@
         <v>52</v>
       </c>
       <c r="GA76">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="GB76">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="GC76">
         <v>58</v>
@@ -46486,7 +46486,7 @@
         <v>187</v>
       </c>
       <c r="AT77">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AU77">
         <v>108</v>
@@ -46525,7 +46525,7 @@
         <v>101</v>
       </c>
       <c r="BG77">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BH77">
         <v>98</v>
@@ -46597,13 +46597,13 @@
         <v>48</v>
       </c>
       <c r="CE77">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CF77">
         <v>39</v>
       </c>
       <c r="CG77">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CH77">
         <v>43</v>
@@ -46684,7 +46684,7 @@
         <v>41</v>
       </c>
       <c r="DH77">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="DI77">
         <v>40</v>
@@ -46726,7 +46726,7 @@
         <v>73</v>
       </c>
       <c r="DV77">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="DW77">
         <v>86</v>
@@ -46795,7 +46795,7 @@
         <v>120</v>
       </c>
       <c r="ES77">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="ET77">
         <v>111</v>
@@ -46897,7 +46897,7 @@
         <v>54</v>
       </c>
       <c r="GA77">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="GB77">
         <v>57</v>
@@ -46951,7 +46951,7 @@
         <v>64</v>
       </c>
       <c r="GS77">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:201">
@@ -47094,7 +47094,7 @@
         <v>151</v>
       </c>
       <c r="AU78">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AV78">
         <v>99</v>
@@ -47124,13 +47124,13 @@
         <v>94</v>
       </c>
       <c r="BE78">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BF78">
         <v>97</v>
       </c>
       <c r="BG78">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BH78">
         <v>96</v>
@@ -47286,7 +47286,7 @@
         <v>32</v>
       </c>
       <c r="DG78">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="DH78">
         <v>36</v>
@@ -47391,13 +47391,13 @@
         <v>128</v>
       </c>
       <c r="EP78">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="EQ78">
         <v>124</v>
       </c>
       <c r="ER78">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="ES78">
         <v>118</v>
@@ -47466,7 +47466,7 @@
         <v>73</v>
       </c>
       <c r="FO78">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="FP78">
         <v>82</v>
@@ -47735,7 +47735,7 @@
         <v>92</v>
       </c>
       <c r="BG79">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BH79">
         <v>93</v>
@@ -48002,13 +48002,13 @@
         <v>131</v>
       </c>
       <c r="ER79">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="ES79">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="ET79">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="EU79">
         <v>103</v>
@@ -48304,7 +48304,7 @@
         <v>155</v>
       </c>
       <c r="AU80">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AV80">
         <v>102</v>
@@ -48373,7 +48373,7 @@
         <v>78</v>
       </c>
       <c r="BR80">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BS80">
         <v>79</v>
@@ -48382,7 +48382,7 @@
         <v>79</v>
       </c>
       <c r="BU80">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BV80">
         <v>65</v>
@@ -48433,7 +48433,7 @@
         <v>46</v>
       </c>
       <c r="CL80">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="CM80">
         <v>47</v>
@@ -48463,10 +48463,10 @@
         <v>42</v>
       </c>
       <c r="CV80">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="CW80">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="CX80">
         <v>47</v>
@@ -48517,7 +48517,7 @@
         <v>56</v>
       </c>
       <c r="DN80">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="DO80">
         <v>47</v>
@@ -48586,7 +48586,7 @@
         <v>88</v>
       </c>
       <c r="EK80">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="EL80">
         <v>107</v>
@@ -48622,7 +48622,7 @@
         <v>102</v>
       </c>
       <c r="EW80">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="EX80">
         <v>102</v>
@@ -48912,7 +48912,7 @@
         <v>118</v>
       </c>
       <c r="AV81">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AW81">
         <v>97</v>
@@ -48945,7 +48945,7 @@
         <v>103</v>
       </c>
       <c r="BG81">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BH81">
         <v>103</v>
@@ -48996,7 +48996,7 @@
         <v>63</v>
       </c>
       <c r="BX81">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BY81">
         <v>60</v>
@@ -49050,7 +49050,7 @@
         <v>68</v>
       </c>
       <c r="CP81">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CQ81">
         <v>47</v>
@@ -49068,7 +49068,7 @@
         <v>36</v>
       </c>
       <c r="CV81">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CW81">
         <v>46</v>
@@ -49152,7 +49152,7 @@
         <v>65</v>
       </c>
       <c r="DX81">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="DY81">
         <v>58</v>
@@ -49182,7 +49182,7 @@
         <v>88</v>
       </c>
       <c r="EH81">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="EI81">
         <v>99</v>
@@ -49227,10 +49227,10 @@
         <v>110</v>
       </c>
       <c r="EW81">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="EX81">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="EY81">
         <v>102</v>
@@ -49317,7 +49317,7 @@
         <v>72</v>
       </c>
       <c r="GA81">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="GB81">
         <v>72</v>
@@ -49541,10 +49541,10 @@
         <v>93</v>
       </c>
       <c r="BD82">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BE82">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="BF82">
         <v>106</v>
@@ -49562,7 +49562,7 @@
         <v>101</v>
       </c>
       <c r="BK82">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="BL82">
         <v>95</v>
@@ -49580,7 +49580,7 @@
         <v>85</v>
       </c>
       <c r="BQ82">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BR82">
         <v>80</v>
@@ -49592,7 +49592,7 @@
         <v>73</v>
       </c>
       <c r="BU82">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BV82">
         <v>69</v>
@@ -49649,7 +49649,7 @@
         <v>50</v>
       </c>
       <c r="CN82">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="CO82">
         <v>63</v>
@@ -49664,7 +49664,7 @@
         <v>39</v>
       </c>
       <c r="CS82">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="CT82">
         <v>35</v>
@@ -49673,7 +49673,7 @@
         <v>33</v>
       </c>
       <c r="CV82">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CW82">
         <v>43</v>
@@ -49685,7 +49685,7 @@
         <v>56</v>
       </c>
       <c r="CZ82">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="DA82">
         <v>46</v>
@@ -49787,7 +49787,7 @@
         <v>96</v>
       </c>
       <c r="EH82">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="EI82">
         <v>103</v>
@@ -50110,10 +50110,10 @@
         <v>228</v>
       </c>
       <c r="AR83">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AS83">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT83">
         <v>161</v>
@@ -50164,7 +50164,7 @@
         <v>92</v>
       </c>
       <c r="BJ83">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BK83">
         <v>85</v>
@@ -50263,7 +50263,7 @@
         <v>56</v>
       </c>
       <c r="CQ83">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="CR83">
         <v>38</v>
@@ -50404,7 +50404,7 @@
         <v>110</v>
       </c>
       <c r="EL83">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="EM83">
         <v>115</v>
@@ -50443,7 +50443,7 @@
         <v>110</v>
       </c>
       <c r="EY83">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="EZ83">
         <v>115</v>
@@ -50524,7 +50524,7 @@
         <v>63</v>
       </c>
       <c r="FZ83">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="GA83">
         <v>62</v>
@@ -50712,13 +50712,13 @@
         <v>231</v>
       </c>
       <c r="AQ84">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AR84">
         <v>222</v>
       </c>
       <c r="AS84">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AT84">
         <v>168</v>
@@ -50769,7 +50769,7 @@
         <v>79</v>
       </c>
       <c r="BJ84">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BK84">
         <v>76</v>
@@ -51096,7 +51096,7 @@
         <v>65</v>
       </c>
       <c r="FO84">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="FP84">
         <v>69</v>
@@ -51180,7 +51180,7 @@
         <v>53</v>
       </c>
       <c r="GQ84">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="GR84">
         <v>56</v>
@@ -51374,13 +51374,13 @@
         <v>76</v>
       </c>
       <c r="BJ85">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BK85">
         <v>83</v>
       </c>
       <c r="BL85">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BM85">
         <v>84</v>
@@ -51479,7 +51479,7 @@
         <v>39</v>
       </c>
       <c r="CS85">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="CT85">
         <v>38</v>
@@ -51698,7 +51698,7 @@
         <v>67</v>
       </c>
       <c r="FN85">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="FO85">
         <v>66</v>
@@ -51731,7 +51731,7 @@
         <v>61</v>
       </c>
       <c r="FY85">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="FZ85">
         <v>59</v>
@@ -51740,7 +51740,7 @@
         <v>59</v>
       </c>
       <c r="GB85">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="GC85">
         <v>63</v>
@@ -51776,10 +51776,10 @@
         <v>51</v>
       </c>
       <c r="GN85">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="GO85">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="GP85">
         <v>53</v>
@@ -51925,7 +51925,7 @@
         <v>229</v>
       </c>
       <c r="AR86">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AS86">
         <v>215</v>
@@ -52204,10 +52204,10 @@
         <v>103</v>
       </c>
       <c r="EG86">
+        <v>103</v>
+      </c>
+      <c r="EH86">
         <v>104</v>
-      </c>
-      <c r="EH86">
-        <v>105</v>
       </c>
       <c r="EI86">
         <v>106</v>
@@ -52255,10 +52255,10 @@
         <v>147</v>
       </c>
       <c r="EX86">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EY86">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="EZ86">
         <v>124</v>
@@ -52348,7 +52348,7 @@
         <v>59</v>
       </c>
       <c r="GC86">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="GD86">
         <v>62</v>
@@ -52384,7 +52384,7 @@
         <v>50</v>
       </c>
       <c r="GO86">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="GP86">
         <v>52</v>
@@ -52851,7 +52851,7 @@
         <v>132</v>
       </c>
       <c r="EU87">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="EV87">
         <v>132</v>
@@ -52929,7 +52929,7 @@
         <v>67</v>
       </c>
       <c r="FU87">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="FV87">
         <v>64</v>
@@ -52980,7 +52980,7 @@
         <v>54</v>
       </c>
       <c r="GL87">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="GM87">
         <v>51</v>
@@ -53483,7 +53483,7 @@
         <v>112</v>
       </c>
       <c r="FD88">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="FE88">
         <v>106</v>
@@ -53585,10 +53585,10 @@
         <v>53</v>
       </c>
       <c r="GL88">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="GM88">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="GN88">
         <v>51</v>
@@ -53890,10 +53890,10 @@
         <v>45</v>
       </c>
       <c r="CP89">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="CQ89">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CR89">
         <v>43</v>
@@ -54061,7 +54061,7 @@
         <v>125</v>
       </c>
       <c r="EU89">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="EV89">
         <v>137</v>
@@ -54085,7 +54085,7 @@
         <v>127</v>
       </c>
       <c r="FC89">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="FD89">
         <v>105</v>
@@ -54100,7 +54100,7 @@
         <v>94</v>
       </c>
       <c r="FH89">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="FI89">
         <v>73</v>
@@ -54136,7 +54136,7 @@
         <v>67</v>
       </c>
       <c r="FT89">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="FU89">
         <v>66</v>
@@ -54184,13 +54184,13 @@
         <v>53</v>
       </c>
       <c r="GJ89">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="GK89">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="GL89">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="GM89">
         <v>52</v>
@@ -54351,7 +54351,7 @@
         <v>213</v>
       </c>
       <c r="AT90">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AU90">
         <v>157</v>
@@ -54408,7 +54408,7 @@
         <v>80</v>
       </c>
       <c r="BM90">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BN90">
         <v>77</v>
@@ -54486,7 +54486,7 @@
         <v>39</v>
       </c>
       <c r="CM90">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="CN90">
         <v>38</v>
@@ -54579,7 +54579,7 @@
         <v>90</v>
       </c>
       <c r="DR90">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="DS90">
         <v>86</v>
@@ -54603,7 +54603,7 @@
         <v>105</v>
       </c>
       <c r="DZ90">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="EA90">
         <v>102</v>
@@ -54615,7 +54615,7 @@
         <v>95</v>
       </c>
       <c r="ED90">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="EE90">
         <v>97</v>
@@ -54627,7 +54627,7 @@
         <v>107</v>
       </c>
       <c r="EH90">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="EI90">
         <v>105</v>
@@ -54684,13 +54684,13 @@
         <v>144</v>
       </c>
       <c r="FA90">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="FB90">
         <v>133</v>
       </c>
       <c r="FC90">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="FD90">
         <v>103</v>
@@ -54756,7 +54756,7 @@
         <v>54</v>
       </c>
       <c r="FY90">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="FZ90">
         <v>50</v>
@@ -54789,7 +54789,7 @@
         <v>52</v>
       </c>
       <c r="GJ90">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="GK90">
         <v>52</v>
@@ -54950,7 +54950,7 @@
         <v>222</v>
       </c>
       <c r="AR91">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AS91">
         <v>209</v>
@@ -55199,7 +55199,7 @@
         <v>88</v>
       </c>
       <c r="DW91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="DX91">
         <v>97</v>
@@ -55322,7 +55322,7 @@
         <v>58</v>
       </c>
       <c r="FL91">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="FM91">
         <v>60</v>
@@ -55391,13 +55391,13 @@
         <v>53</v>
       </c>
       <c r="GI91">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="GJ91">
         <v>51</v>
       </c>
       <c r="GK91">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="GL91">
         <v>52</v>
@@ -55555,7 +55555,7 @@
         <v>223</v>
       </c>
       <c r="AR92">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AS92">
         <v>208</v>
@@ -55600,7 +55600,7 @@
         <v>46</v>
       </c>
       <c r="BG92">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BH92">
         <v>51</v>
@@ -55615,7 +55615,7 @@
         <v>61</v>
       </c>
       <c r="BL92">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM92">
         <v>65</v>
@@ -55675,13 +55675,13 @@
         <v>47</v>
       </c>
       <c r="CF92">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="CG92">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="CH92">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="CI92">
         <v>43</v>
@@ -55804,10 +55804,10 @@
         <v>90</v>
       </c>
       <c r="DW92">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="DX92">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="DY92">
         <v>96</v>
@@ -55915,7 +55915,7 @@
         <v>85</v>
       </c>
       <c r="FH92">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="FI92">
         <v>64</v>
@@ -55999,7 +55999,7 @@
         <v>50</v>
       </c>
       <c r="GJ92">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="GK92">
         <v>50</v>
@@ -56220,7 +56220,7 @@
         <v>50</v>
       </c>
       <c r="BL93">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BM93">
         <v>53</v>
@@ -56262,7 +56262,7 @@
         <v>55</v>
       </c>
       <c r="BZ93">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="CA93">
         <v>49</v>
@@ -56900,13 +56900,13 @@
         <v>31</v>
       </c>
       <c r="CK94">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CL94">
+        <v>30</v>
+      </c>
+      <c r="CM94">
         <v>29</v>
-      </c>
-      <c r="CM94">
-        <v>28</v>
       </c>
       <c r="CN94">
         <v>31</v>
@@ -57041,7 +57041,7 @@
         <v>94</v>
       </c>
       <c r="EF94">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="EG94">
         <v>90</v>
@@ -57131,7 +57131,7 @@
         <v>60</v>
       </c>
       <c r="FJ94">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="FK94">
         <v>56</v>
@@ -57379,7 +57379,7 @@
         <v>202</v>
       </c>
       <c r="AU95">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AV95">
         <v>145</v>
@@ -57508,7 +57508,7 @@
         <v>33</v>
       </c>
       <c r="CL95">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CM95">
         <v>35</v>
@@ -57754,7 +57754,7 @@
         <v>52</v>
       </c>
       <c r="FP95">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="FQ95">
         <v>55</v>
@@ -57796,7 +57796,7 @@
         <v>51</v>
       </c>
       <c r="GD95">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="GE95">
         <v>50</v>
@@ -58110,7 +58110,7 @@
         <v>38</v>
       </c>
       <c r="CK96">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CL96">
         <v>48</v>
@@ -58311,7 +58311,7 @@
         <v>132</v>
       </c>
       <c r="EZ96">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="FA96">
         <v>130</v>
@@ -58709,7 +58709,7 @@
         <v>45</v>
       </c>
       <c r="CI97">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="CJ97">
         <v>52</v>
@@ -58922,7 +58922,7 @@
         <v>128</v>
       </c>
       <c r="FB97">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="FC97">
         <v>126</v>
@@ -58964,7 +58964,7 @@
         <v>49</v>
       </c>
       <c r="FP97">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="FQ97">
         <v>52</v>
@@ -59012,7 +59012,7 @@
         <v>50</v>
       </c>
       <c r="GF97">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="GG97">
         <v>49</v>
@@ -59033,10 +59033,10 @@
         <v>45</v>
       </c>
       <c r="GM97">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="GN97">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="GO97">
         <v>46</v>
@@ -59251,7 +59251,7 @@
         <v>41</v>
       </c>
       <c r="BN98">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BO98">
         <v>31</v>
@@ -59266,7 +59266,7 @@
         <v>42</v>
       </c>
       <c r="BS98">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="BT98">
         <v>35</v>
@@ -59317,7 +59317,7 @@
         <v>54</v>
       </c>
       <c r="CJ98">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="CK98">
         <v>61</v>
@@ -59461,7 +59461,7 @@
         <v>80</v>
       </c>
       <c r="EF98">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="EG98">
         <v>83</v>
@@ -59539,7 +59539,7 @@
         <v>131</v>
       </c>
       <c r="FF98">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="FG98">
         <v>134</v>
@@ -59566,7 +59566,7 @@
         <v>49</v>
       </c>
       <c r="FO98">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="FP98">
         <v>50</v>
@@ -59608,7 +59608,7 @@
         <v>50</v>
       </c>
       <c r="GC98">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="GD98">
         <v>49</v>
@@ -60108,7 +60108,7 @@
         <v>104</v>
       </c>
       <c r="ET99">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="EU99">
         <v>94</v>
@@ -60168,7 +60168,7 @@
         <v>52</v>
       </c>
       <c r="FN99">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="FO99">
         <v>48</v>
@@ -60216,7 +60216,7 @@
         <v>48</v>
       </c>
       <c r="GD99">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="GE99">
         <v>49</v>
@@ -60246,10 +60246,10 @@
         <v>47</v>
       </c>
       <c r="GN99">
+        <v>49</v>
+      </c>
+      <c r="GO99">
         <v>48</v>
-      </c>
-      <c r="GO99">
-        <v>47</v>
       </c>
       <c r="GP99">
         <v>47</v>
@@ -60392,7 +60392,7 @@
         <v>233</v>
       </c>
       <c r="AQ100">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AR100">
         <v>214</v>
@@ -60476,13 +60476,13 @@
         <v>32</v>
       </c>
       <c r="BS100">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BT100">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BU100">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BV100">
         <v>41</v>
@@ -60512,13 +60512,13 @@
         <v>70</v>
       </c>
       <c r="CE100">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="CF100">
         <v>64</v>
       </c>
       <c r="CG100">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="CH100">
         <v>67</v>
@@ -60707,7 +60707,7 @@
         <v>101</v>
       </c>
       <c r="ER100">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="ES100">
         <v>100</v>
@@ -60722,7 +60722,7 @@
         <v>105</v>
       </c>
       <c r="EW100">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="EX100">
         <v>113</v>
@@ -60755,7 +60755,7 @@
         <v>137</v>
       </c>
       <c r="FH100">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="FI100">
         <v>127</v>
@@ -60815,16 +60815,16 @@
         <v>49</v>
       </c>
       <c r="GB100">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="GC100">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="GD100">
         <v>47</v>
       </c>
       <c r="GE100">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="GF100">
         <v>47</v>
@@ -60833,7 +60833,7 @@
         <v>47</v>
       </c>
       <c r="GH100">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="GI100">
         <v>49</v>
@@ -60848,13 +60848,13 @@
         <v>47</v>
       </c>
       <c r="GM100">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="GN100">
+        <v>49</v>
+      </c>
+      <c r="GO100">
         <v>48</v>
-      </c>
-      <c r="GO100">
-        <v>47</v>
       </c>
       <c r="GP100">
         <v>47</v>
@@ -61117,7 +61117,7 @@
         <v>73</v>
       </c>
       <c r="CE101">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="CF101">
         <v>71</v>
@@ -61243,7 +61243,7 @@
         <v>78</v>
       </c>
       <c r="DU101">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="DV101">
         <v>72</v>
@@ -61312,22 +61312,22 @@
         <v>109</v>
       </c>
       <c r="ER101">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="ES101">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="ET101">
         <v>99</v>
       </c>
       <c r="EU101">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="EV101">
         <v>103</v>
       </c>
       <c r="EW101">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="EX101">
         <v>122</v>
@@ -61357,13 +61357,13 @@
         <v>140</v>
       </c>
       <c r="FG101">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="FH101">
         <v>135</v>
       </c>
       <c r="FI101">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="FJ101">
         <v>116</v>
@@ -61381,7 +61381,7 @@
         <v>49</v>
       </c>
       <c r="FO101">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="FP101">
         <v>49</v>
@@ -61429,7 +61429,7 @@
         <v>46</v>
       </c>
       <c r="GE101">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="GF101">
         <v>46</v>
@@ -61456,16 +61456,16 @@
         <v>48</v>
       </c>
       <c r="GN101">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="GO101">
         <v>48</v>
       </c>
       <c r="GP101">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="GQ101">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="GR101">
         <v>46</v>
